--- a/apps/load_data/2017/08/PLMOVMAE.xlsx
+++ b/apps/load_data/2017/08/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2017\HHY0817\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2017\HHY0817\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DCD5BA-4DD8-498C-A185-9C0C4EA4B91C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586D708D-7D97-41AF-B7E3-2EE6FC3D0F39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$251</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$250</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9835" uniqueCount="2468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9823" uniqueCount="2467">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6383,9 +6384,6 @@
   </si>
   <si>
     <t>08771747</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1047    134899    1348991081    296920    2969201082    159880    1598802001         0     386002006     40800     408002026    204920    2049202027      3068      30682029      1500      15002086      2500      25002180       250       250</t>
@@ -8285,8 +8283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251:XFD251"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC259" sqref="AC259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44231,12 +44229,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2120</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>104</v>
       </c>
@@ -44295,10 +44288,10 @@
         <v>109</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2121</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2122</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>112</v>
@@ -44310,7 +44303,7 @@
         <v>151</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>116</v>
@@ -44331,13 +44324,13 @@
         <v>98</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2124</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2125</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2126</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -44372,13 +44365,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2127</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2128</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2129</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -44413,12 +44406,7 @@
       <c r="AB210" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2120</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>104</v>
       </c>
@@ -44465,7 +44453,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="BB210" s="1">
         <v>8</v>
@@ -44477,10 +44465,10 @@
         <v>109</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2131</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2132</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>112</v>
@@ -44492,13 +44480,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>116</v>
@@ -44522,13 +44510,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1755</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -44563,13 +44551,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2137</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2138</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2139</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -44604,12 +44592,7 @@
       <c r="AB211" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2120</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>104</v>
       </c>
@@ -44656,7 +44639,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="BB211" s="1">
         <v>8</v>
@@ -44671,10 +44654,10 @@
         <v>109</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2141</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2142</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>112</v>
@@ -44686,13 +44669,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>116</v>
@@ -44716,13 +44699,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2145</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2146</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2147</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -44757,13 +44740,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2148</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2149</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2150</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -44795,12 +44778,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2120</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>104</v>
       </c>
@@ -44850,7 +44828,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="BB212" s="1">
         <v>8</v>
@@ -44862,7 +44840,7 @@
         <v>109</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>713</v>
@@ -44874,7 +44852,7 @@
         <v>103</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>116</v>
@@ -44892,13 +44870,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1097</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -44933,13 +44911,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2156</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2157</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2158</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -44971,12 +44949,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2120</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>104</v>
       </c>
@@ -45026,7 +44999,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="BB213" s="1">
         <v>8</v>
@@ -45038,7 +45011,7 @@
         <v>109</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>112</v>
@@ -45047,7 +45020,7 @@
         <v>103</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>116</v>
@@ -45068,10 +45041,10 @@
         <v>637</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2162</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2163</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -45106,13 +45079,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2164</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2165</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2166</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -45144,12 +45117,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2120</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>104</v>
       </c>
@@ -45199,7 +45167,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="BB214" s="1">
         <v>8</v>
@@ -45211,7 +45179,7 @@
         <v>109</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>845</v>
@@ -45223,7 +45191,7 @@
         <v>103</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>116</v>
@@ -45241,13 +45209,13 @@
         <v>98</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2170</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2170</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2171</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -45282,13 +45250,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2172</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2173</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2174</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -45326,12 +45294,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2120</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>104</v>
       </c>
@@ -45378,7 +45341,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="BB215" s="1">
         <v>8</v>
@@ -45387,13 +45350,13 @@
         <v>17</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>252</v>
@@ -45408,13 +45371,13 @@
         <v>113</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>116</v>
@@ -45432,13 +45395,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2180</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2181</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2182</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -45473,13 +45436,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2183</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2184</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2185</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -45511,12 +45474,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2120</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>104</v>
       </c>
@@ -45566,7 +45524,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="BB216" s="1">
         <v>8</v>
@@ -45578,7 +45536,7 @@
         <v>109</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>713</v>
@@ -45590,7 +45548,7 @@
         <v>103</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>116</v>
@@ -45608,13 +45566,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2189</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2190</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2191</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -45649,13 +45607,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2193</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2194</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -45687,12 +45645,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2120</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>104</v>
       </c>
@@ -45742,7 +45695,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="BB217" s="1">
         <v>8</v>
@@ -45754,7 +45707,7 @@
         <v>109</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>845</v>
@@ -45769,7 +45722,7 @@
         <v>151</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>116</v>
@@ -45787,13 +45740,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2198</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2200</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -45828,13 +45781,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2201</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2202</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2203</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -45866,12 +45819,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2120</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>104</v>
       </c>
@@ -45918,7 +45866,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="BB218" s="1">
         <v>8</v>
@@ -45927,16 +45875,16 @@
         <v>17</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2206</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2207</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>112</v>
@@ -45948,13 +45896,13 @@
         <v>203</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>116</v>
@@ -45972,13 +45920,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>422</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -46013,13 +45961,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2212</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2213</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2214</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -46054,12 +46002,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2120</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>104</v>
       </c>
@@ -46109,7 +46052,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="BB219" s="1">
         <v>8</v>
@@ -46124,7 +46067,7 @@
         <v>109</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>336</v>
@@ -46136,7 +46079,7 @@
         <v>103</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>116</v>
@@ -46157,13 +46100,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2218</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2219</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -46198,13 +46141,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2221</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2222</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2223</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -46236,12 +46179,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2120</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>104</v>
       </c>
@@ -46288,7 +46226,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="BB220" s="1">
         <v>8</v>
@@ -46303,10 +46241,10 @@
         <v>109</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2225</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2226</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>112</v>
@@ -46318,13 +46256,13 @@
         <v>113</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>116</v>
@@ -46342,13 +46280,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1597</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -46383,13 +46321,13 @@
         <v>313</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2232</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2233</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -46440,7 +46378,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -46479,13 +46417,13 @@
         <v>109</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>116</v>
@@ -46509,10 +46447,10 @@
         <v>2019</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2237</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2238</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -46547,13 +46485,13 @@
         <v>313</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2239</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2240</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2241</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -46607,7 +46545,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -46646,13 +46584,13 @@
         <v>109</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>116</v>
@@ -46673,13 +46611,13 @@
         <v>98</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2245</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2246</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -46714,13 +46652,13 @@
         <v>313</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2248</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2249</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -46774,7 +46712,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -46813,13 +46751,13 @@
         <v>109</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>116</v>
@@ -46840,13 +46778,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2253</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2254</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -46881,13 +46819,13 @@
         <v>313</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2255</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2256</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2257</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -46977,13 +46915,13 @@
         <v>109</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>116</v>
@@ -47004,10 +46942,10 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>191</v>
@@ -47045,13 +46983,13 @@
         <v>313</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2261</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2262</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2263</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -47105,7 +47043,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -47144,13 +47082,13 @@
         <v>109</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>116</v>
@@ -47174,13 +47112,13 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -47215,13 +47153,13 @@
         <v>313</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2267</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2268</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2269</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -47272,7 +47210,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -47311,13 +47249,13 @@
         <v>109</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>116</v>
@@ -47338,13 +47276,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2273</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2190</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2274</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -47379,10 +47317,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2275</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2276</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>214</v>
@@ -47451,7 +47389,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -47469,7 +47407,7 @@
         <v>218</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -47504,10 +47442,10 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2278</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2279</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>214</v>
@@ -47591,7 +47529,7 @@
         <v>218</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -47626,13 +47564,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2280</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2281</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2282</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -47713,7 +47651,7 @@
         <v>98</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="BB229" s="1">
         <v>8</v>
@@ -47725,7 +47663,7 @@
         <v>109</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>2060</v>
@@ -47740,7 +47678,7 @@
         <v>151</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>116</v>
@@ -47758,13 +47696,13 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>422</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -47799,13 +47737,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2288</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2289</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2290</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -47883,7 +47821,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="BB230" s="1">
         <v>8</v>
@@ -47895,10 +47833,10 @@
         <v>109</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2292</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2293</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>112</v>
@@ -47910,13 +47848,13 @@
         <v>203</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>116</v>
@@ -47934,13 +47872,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2297</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2298</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -47975,13 +47913,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2299</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2300</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2301</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -48059,7 +47997,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BB231" s="1">
         <v>8</v>
@@ -48071,10 +48009,10 @@
         <v>109</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2303</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2304</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>112</v>
@@ -48086,13 +48024,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>116</v>
@@ -48110,13 +48048,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2307</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2308</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2309</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -48151,13 +48089,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2311</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2312</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -48238,7 +48176,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BB232" s="1">
         <v>8</v>
@@ -48250,7 +48188,7 @@
         <v>109</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>112</v>
@@ -48259,7 +48197,7 @@
         <v>103</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>116</v>
@@ -48277,13 +48215,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>797</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -48318,13 +48256,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2318</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2319</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2320</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -48360,7 +48298,7 @@
         <v>104</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1693</v>
@@ -48405,7 +48343,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BB233" s="1">
         <v>8</v>
@@ -48417,7 +48355,7 @@
         <v>109</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>1645</v>
@@ -48429,7 +48367,7 @@
         <v>103</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>116</v>
@@ -48450,10 +48388,10 @@
         <v>1416</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2325</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2326</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -48488,13 +48426,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2327</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2328</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2329</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -48575,7 +48513,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BB234" s="1">
         <v>8</v>
@@ -48587,7 +48525,7 @@
         <v>109</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>1847</v>
@@ -48599,7 +48537,7 @@
         <v>103</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>116</v>
@@ -48623,7 +48561,7 @@
         <v>866</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -48658,13 +48596,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2334</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2335</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2336</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -48745,7 +48683,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BB235" s="1">
         <v>8</v>
@@ -48757,10 +48695,10 @@
         <v>109</v>
       </c>
       <c r="BH235" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="BI235" s="1" t="s">
         <v>2338</v>
-      </c>
-      <c r="BI235" s="1" t="s">
-        <v>2339</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>112</v>
@@ -48769,7 +48707,7 @@
         <v>103</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>116</v>
@@ -48787,13 +48725,13 @@
         <v>98</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2341</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2342</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -48828,13 +48766,13 @@
         <v>313</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -48876,7 +48814,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -48909,13 +48847,13 @@
         <v>109</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>116</v>
@@ -48933,13 +48871,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>295</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -48974,13 +48912,13 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2353</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2354</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -49022,7 +48960,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>104</v>
@@ -49076,16 +49014,16 @@
         <v>17</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2356</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2357</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>112</v>
@@ -49097,13 +49035,13 @@
         <v>203</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>116</v>
@@ -49124,7 +49062,7 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>285</v>
@@ -49165,13 +49103,13 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2362</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2363</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>97</v>
@@ -49261,10 +49199,10 @@
         <v>109</v>
       </c>
       <c r="BH238" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="BI238" s="1" t="s">
         <v>2364</v>
-      </c>
-      <c r="BI238" s="1" t="s">
-        <v>2365</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>112</v>
@@ -49276,13 +49214,13 @@
         <v>113</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BS238" s="3">
         <v>37747</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>116</v>
@@ -49306,7 +49244,7 @@
         <v>627</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -49341,13 +49279,13 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2369</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2370</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2371</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>97</v>
@@ -49437,7 +49375,7 @@
         <v>109</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>112</v>
@@ -49446,7 +49384,7 @@
         <v>103</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>116</v>
@@ -49464,13 +49402,13 @@
         <v>98</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2374</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2375</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2376</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -49505,13 +49443,13 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2377</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2378</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2379</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
@@ -49601,7 +49539,7 @@
         <v>109</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="BI240" s="1" t="s">
         <v>845</v>
@@ -49613,7 +49551,7 @@
         <v>103</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>116</v>
@@ -49631,13 +49569,13 @@
         <v>98</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="CD240" s="1" t="s">
         <v>2382</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CE240" s="1" t="s">
         <v>2383</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2384</v>
       </c>
     </row>
     <row r="241" spans="1:84" x14ac:dyDescent="0.25">
@@ -49672,13 +49610,13 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2386</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2387</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
@@ -49768,10 +49706,10 @@
         <v>109</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2388</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2389</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>112</v>
@@ -49783,13 +49721,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BS241" s="3">
         <v>37334</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>116</v>
@@ -49810,10 +49748,10 @@
         <v>504</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2392</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2393</v>
       </c>
     </row>
     <row r="242" spans="1:84" x14ac:dyDescent="0.25">
@@ -49848,13 +49786,13 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2395</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2396</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
@@ -49944,10 +49882,10 @@
         <v>109</v>
       </c>
       <c r="BH242" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="BI242" s="1" t="s">
         <v>2397</v>
-      </c>
-      <c r="BI242" s="1" t="s">
-        <v>2398</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>112</v>
@@ -49959,13 +49897,13 @@
         <v>99</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BS242" s="3">
         <v>37904</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>116</v>
@@ -49986,10 +49924,10 @@
         <v>866</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2401</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2402</v>
       </c>
     </row>
     <row r="243" spans="1:84" x14ac:dyDescent="0.25">
@@ -50024,13 +49962,13 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2404</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2405</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
@@ -50117,7 +50055,7 @@
         <v>109</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>112</v>
@@ -50129,13 +50067,13 @@
         <v>113</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BS243" s="3">
         <v>36111</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>116</v>
@@ -50153,13 +50091,13 @@
         <v>98</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="244" spans="1:84" x14ac:dyDescent="0.25">
@@ -50194,13 +50132,13 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2412</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2413</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
@@ -50290,10 +50228,10 @@
         <v>109</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BI244" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>112</v>
@@ -50305,13 +50243,13 @@
         <v>113</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BS244" s="3">
         <v>37785</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>116</v>
@@ -50329,13 +50267,13 @@
         <v>98</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2418</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2419</v>
       </c>
     </row>
     <row r="245" spans="1:84" x14ac:dyDescent="0.25">
@@ -50370,13 +50308,13 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2420</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2421</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2422</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
@@ -50466,7 +50404,7 @@
         <v>109</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>112</v>
@@ -50475,7 +50413,7 @@
         <v>103</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>116</v>
@@ -50496,10 +50434,10 @@
         <v>1133</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2425</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2426</v>
       </c>
     </row>
     <row r="246" spans="1:84" x14ac:dyDescent="0.25">
@@ -50537,10 +50475,10 @@
         <v>246</v>
       </c>
       <c r="L246" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="M246" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="M246" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>248</v>
@@ -50573,7 +50511,7 @@
         <v>42582</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>104</v>
@@ -50624,10 +50562,10 @@
         <v>249</v>
       </c>
       <c r="BH246" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="BI246" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="BI246" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>112</v>
@@ -50701,16 +50639,16 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2432</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="M247" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="M247" s="1" t="s">
-        <v>2428</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2434</v>
       </c>
       <c r="Q247" s="3">
         <v>17060</v>
@@ -50746,7 +50684,7 @@
         <v>42628</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>104</v>
@@ -50797,16 +50735,16 @@
         <v>98</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="BD247" s="1" t="s">
         <v>216</v>
       </c>
       <c r="BH247" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="BI247" s="1" t="s">
         <v>2437</v>
-      </c>
-      <c r="BI247" s="1" t="s">
-        <v>2438</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>112</v>
@@ -50815,7 +50753,7 @@
         <v>103</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>116</v>
@@ -50839,7 +50777,7 @@
         <v>120</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="248" spans="1:84" x14ac:dyDescent="0.25">
@@ -50874,16 +50812,16 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2441</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="M248" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="N248" s="1" t="s">
         <v>2442</v>
-      </c>
-      <c r="M248" s="1" t="s">
-        <v>2428</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2443</v>
       </c>
       <c r="Q248" s="3">
         <v>26864</v>
@@ -50913,7 +50851,7 @@
         <v>42735</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>104</v>
@@ -50964,7 +50902,7 @@
         <v>99</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>112</v>
@@ -50976,13 +50914,13 @@
         <v>203</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BS248" s="3">
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>116</v>
@@ -51003,13 +50941,13 @@
         <v>98</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="CD248" s="1" t="s">
         <v>2448</v>
       </c>
-      <c r="CD248" s="1" t="s">
+      <c r="CE248" s="1" t="s">
         <v>2449</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2450</v>
       </c>
     </row>
     <row r="249" spans="1:84" x14ac:dyDescent="0.25">
@@ -51044,16 +50982,16 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2451</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="M249" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="N249" s="1" t="s">
         <v>2452</v>
-      </c>
-      <c r="M249" s="1" t="s">
-        <v>2428</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2453</v>
       </c>
       <c r="Q249" s="3">
         <v>17041</v>
@@ -51080,7 +51018,7 @@
         <v>42735</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>104</v>
@@ -51131,7 +51069,7 @@
         <v>98</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>112</v>
@@ -51140,7 +51078,7 @@
         <v>103</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>116</v>
@@ -51161,13 +51099,13 @@
         <v>98</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="CD249" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="CD249" s="1" t="s">
+      <c r="CE249" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2458</v>
       </c>
     </row>
     <row r="250" spans="1:84" x14ac:dyDescent="0.25">
@@ -51202,16 +51140,16 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="M250" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="N250" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="M250" s="1" t="s">
-        <v>2428</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2461</v>
       </c>
       <c r="Q250" s="3">
         <v>25379</v>
@@ -51241,7 +51179,7 @@
         <v>39800</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>222</v>
@@ -51292,7 +51230,7 @@
         <v>99</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>112</v>
@@ -51304,13 +51242,13 @@
         <v>214</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BS250" s="3">
         <v>35915</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>116</v>
@@ -51340,7 +51278,7 @@
         <v>433</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="251" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -51500,7 +51438,7 @@
         <v>109</v>
       </c>
       <c r="BH251" s="4" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BI251" s="4"/>
       <c r="BJ251" s="4"/>
@@ -51554,6 +51492,7 @@
       <c r="CF251" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF251" xr:uid="{05A6C68C-D14F-4DD3-9A12-3E22DCC5D21B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>